--- a/217-st-fhir-corriger-lurl-du-jdv_j264/ig/StructureDefinition-esms-document-reference.xlsx
+++ b/217-st-fhir-corriger-lurl-du-jdv_j264/ig/StructureDefinition-esms-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T08:49:43+00:00</t>
+    <t>2024-09-27T09:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
